--- a/programs/elearningproject.xlsx
+++ b/programs/elearningproject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\iqvia\2023\september\reacttraining\programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B7FAB-7F41-46D2-B8A3-43E30A8C5F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A0BD55-8412-4680-8160-E20069AACEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectLayout" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="174">
   <si>
     <t>Product Master</t>
   </si>
@@ -2454,13 +2454,46 @@
       </rPr>
       <t>},</t>
     </r>
+  </si>
+  <si>
+    <t>Payment gateway</t>
+  </si>
+  <si>
+    <t>on click of buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razor </t>
+  </si>
+  <si>
+    <t>https://razorpay.com/docs/payments/server-integration/nodejs/payment-gateway/build-integration/</t>
+  </si>
+  <si>
+    <t>MCQ</t>
+  </si>
+  <si>
+    <t>db.json</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>correct option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2530,6 +2563,14 @@
       <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2645,10 +2686,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2687,8 +2729,10 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3869,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791AAED2-5CB5-4C3D-8DBA-52D4787CB2EE}">
-  <dimension ref="D1:G29"/>
+  <dimension ref="C1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4027,7 +4071,65 @@
     <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D29" s="23"/>
     </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{58A6BCF9-2562-400C-89D8-046575A2EFAA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4036,7 +4138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F161945C-14F1-4963-A50A-42A4C6DD80D4}">
   <dimension ref="D2:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
